--- a/OZZY.xlsx
+++ b/OZZY.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="126">
   <si>
     <t xml:space="preserve">FECHA</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">FOLIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARJETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANCO</t>
   </si>
   <si>
     <t xml:space="preserve">18/Marzo/2021</t>
@@ -167,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">JONATAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TARJETA</t>
   </si>
   <si>
     <t xml:space="preserve">B7-8 FELIPE</t>
@@ -628,7 +631,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -853,19 +856,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4063,10 +4058,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
@@ -4093,6 +4088,12 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="ALN1" s="0"/>
       <c r="ALO1" s="0"/>
@@ -4120,16 +4121,16 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>834.8</v>
@@ -4142,7 +4143,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>200</v>
@@ -4177,7 +4178,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>800.16</v>
@@ -4197,7 +4198,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1670.25</v>
@@ -4351,27 +4352,29 @@
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="6" t="n">
         <v>445.4</v>
       </c>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="D25" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="4" t="n">
         <v>777</v>
       </c>
       <c r="F25" s="5"/>
+      <c r="H25" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -4384,7 +4387,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>100</v>
@@ -4400,13 +4403,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1892.95</v>
@@ -4419,7 +4422,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>400</v>
@@ -4432,7 +4435,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>500</v>
@@ -4474,22 +4477,23 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="6" t="n">
         <v>2640.29</v>
       </c>
       <c r="F35" s="5"/>
+      <c r="H35" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="D36" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E36" s="8" t="n">
         <v>3000</v>
@@ -4505,13 +4509,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>1000</v>
@@ -4564,7 +4568,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="D43" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>700.4</v>
@@ -4588,7 +4592,7 @@
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1800</v>
@@ -4678,7 +4682,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="D53" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E53" s="4" t="n">
         <v>659.1</v>
@@ -4689,23 +4693,24 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="D54" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E54" s="4" t="n">
         <v>11.41</v>
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="D55" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="6" t="n">
         <v>10017.87</v>
       </c>
       <c r="F55" s="5"/>
+      <c r="H55" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -4716,13 +4721,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>2197</v>
@@ -4735,7 +4740,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="D58" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>900</v>
@@ -4748,7 +4753,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="D59" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>2500</v>
@@ -4794,7 +4799,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="D63" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E63" s="4" t="n">
         <v>528.2</v>
@@ -4803,16 +4808,17 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="D64" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="6" t="n">
         <v>6721.07</v>
       </c>
       <c r="F64" s="5"/>
+      <c r="H64" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -4821,18 +4827,19 @@
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="9" t="n">
         <v>3319.63</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,7 +4906,7 @@
       <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.72"/>
@@ -4910,7 +4917,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -4935,19 +4942,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M5" s="2"/>
       <c r="Q5" s="5" t="n">
@@ -4990,13 +4997,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>1669.6</v>
@@ -5029,7 +5036,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>200</v>
@@ -5287,7 +5294,7 @@
       <c r="A19" s="5"/>
       <c r="B19" s="31"/>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>615.87</v>
@@ -5310,7 +5317,7 @@
       <c r="A20" s="5"/>
       <c r="B20" s="31"/>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>1900</v>
@@ -5485,7 +5492,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" s="15" t="n">
         <v>5739.6</v>
@@ -5504,7 +5511,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D30" s="15" t="n">
         <v>1600.2</v>
@@ -5588,13 +5595,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="15" t="n">
         <v>300</v>
@@ -5650,7 +5657,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="15" t="n">
         <v>500</v>
@@ -5702,7 +5709,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39" s="15" t="n">
         <v>834.8</v>
@@ -5754,7 +5761,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>4000</v>
@@ -5781,7 +5788,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" s="15" t="n">
         <v>6987.98</v>
@@ -5806,7 +5813,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43" s="15" t="n">
         <v>400</v>
@@ -5897,13 +5904,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="15" t="n">
         <v>300</v>
@@ -5930,7 +5937,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D49" s="15" t="n">
         <v>659.1</v>
@@ -6007,7 +6014,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" s="15" t="n">
         <v>1170.45</v>
@@ -6084,7 +6091,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D55" s="15" t="n">
         <v>13344.24</v>
@@ -6103,7 +6110,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D56" s="15" t="n">
         <v>120</v>
@@ -6188,13 +6195,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" s="15" t="n">
         <v>200</v>
@@ -6246,7 +6253,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D63" s="15" t="n">
         <v>1000</v>
@@ -6298,7 +6305,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D65" s="15" t="n">
         <v>2500</v>
@@ -6350,7 +6357,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D67" s="15" t="n">
         <v>571.42</v>
@@ -6452,7 +6459,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D71" s="15" t="n">
         <v>8278.28</v>
@@ -6558,13 +6565,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D77" s="15" t="n">
         <v>2087.15</v>
@@ -6666,7 +6673,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D81" s="15" t="n">
         <v>1046.69</v>
@@ -6693,7 +6700,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D82" s="15" t="n">
         <v>4037.91</v>
@@ -6778,13 +6785,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" s="15" t="n">
         <v>69</v>
@@ -6807,7 +6814,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D88" s="15" t="n">
         <v>1843</v>
@@ -9500,7 +9507,7 @@
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.28"/>
@@ -9515,7 +9522,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -9532,19 +9539,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,13 +9567,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>33</v>
@@ -9619,13 +9626,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>500</v>
@@ -9691,7 +9698,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>500</v>
@@ -9709,7 +9716,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>1042.06</v>
@@ -9727,7 +9734,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>208.7</v>
@@ -9795,13 +9802,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>1400</v>
@@ -9885,13 +9892,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="15" t="n">
         <v>800</v>
@@ -9914,7 +9921,7 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5"/>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D29" s="15" t="n">
         <v>900</v>
@@ -9937,7 +9944,7 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5"/>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="15" t="n">
         <v>1603.44</v>
@@ -9972,7 +9979,7 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5"/>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D32" s="15" t="n">
         <v>1952.25</v>
@@ -9989,7 +9996,7 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5"/>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" s="15" t="n">
         <v>1081.67</v>
@@ -11574,7 +11581,7 @@
       <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
@@ -11585,7 +11592,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -11601,19 +11608,19 @@
         <v>5</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11626,13 +11633,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>1336.2</v>
@@ -11653,7 +11660,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>500.05</v>
@@ -11712,7 +11719,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>668.88</v>
@@ -11762,7 +11769,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>3383.35</v>
@@ -11775,7 +11782,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>400</v>
@@ -11788,7 +11795,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>600</v>
@@ -11831,13 +11838,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>1773.95</v>
@@ -11896,7 +11903,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="15" t="n">
         <v>4024.05</v>
@@ -11915,7 +11922,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="15" t="n">
         <v>300</v>
@@ -12039,13 +12046,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="15" t="n">
         <v>200</v>
@@ -12140,7 +12147,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" s="15" t="n">
         <v>500</v>
@@ -12155,7 +12162,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>659.1</v>
@@ -12170,7 +12177,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" s="15" t="n">
         <v>712.73</v>
@@ -12211,7 +12218,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="15" t="n">
         <v>700</v>
@@ -12224,7 +12231,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="15" t="n">
         <v>81.89</v>
@@ -12276,13 +12283,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="15" t="n">
         <v>2500</v>
@@ -12322,7 +12329,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D53" s="15" t="n">
         <v>939.15</v>
@@ -12362,7 +12369,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" s="15" t="n">
         <v>769.04</v>
@@ -12402,7 +12409,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D57" s="15" t="n">
         <v>25687.79</v>
@@ -12421,7 +12428,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="15" t="n">
         <v>100</v>
@@ -12548,13 +12555,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D67" s="26" t="n">
         <v>1493.96</v>
@@ -12594,7 +12601,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" s="26" t="n">
         <v>1159.99</v>
@@ -12651,7 +12658,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D73" s="26" t="n">
         <v>1600</v>
@@ -12664,7 +12671,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D74" s="26" t="n">
         <v>300</v>
@@ -12677,7 +12684,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75" s="26" t="n">
         <v>3295.5</v>
@@ -12690,7 +12697,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D76" s="26" t="n">
         <v>800</v>
@@ -12873,18 +12880,18 @@
       <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -12901,20 +12908,20 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12928,13 +12935,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>500</v>
@@ -13058,7 +13065,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>3250</v>
@@ -13095,13 +13102,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>300</v>
@@ -13287,7 +13294,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" s="15" t="n">
         <v>521.75</v>
@@ -13301,7 +13308,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29" s="15" t="n">
         <v>1450</v>
@@ -13338,13 +13345,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D32" s="15" t="n">
         <v>1626</v>
@@ -13366,7 +13373,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" s="15" t="n">
         <v>1150</v>
@@ -13438,13 +13445,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="15" t="n">
         <v>1000</v>
@@ -13526,7 +13533,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D42" s="15" t="n">
         <v>1000</v>
@@ -13542,14 +13549,14 @@
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" s="15" t="n">
         <v>6010.32</v>
@@ -13599,13 +13606,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" s="15" t="n">
         <v>1480.65</v>
@@ -13655,13 +13662,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" s="15" t="n">
         <v>830</v>
@@ -13683,7 +13690,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D52" s="15" t="n">
         <v>41</v>
@@ -13701,7 +13708,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="15" t="n">
         <v>580</v>
@@ -16017,7 +16024,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16040,7 +16047,7 @@
       <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.42"/>
@@ -16053,7 +16060,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -16069,19 +16076,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16092,13 +16099,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>2606.45</v>
@@ -16122,7 +16129,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>1476.1</v>
@@ -16289,13 +16296,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>1669.6</v>
@@ -16317,7 +16324,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>500</v>
@@ -16419,7 +16426,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" s="15" t="n">
         <v>200</v>
@@ -16441,7 +16448,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="15" t="n">
         <v>500.05</v>
@@ -16503,7 +16510,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="15" t="n">
         <v>1043.5</v>
@@ -16565,7 +16572,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>6580.14</v>
@@ -16585,7 +16592,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="15" t="n">
         <v>414</v>
@@ -16671,13 +16678,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="15" t="n">
         <v>1043.5</v>
@@ -16699,7 +16706,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="15" t="n">
         <v>200</v>
@@ -16741,7 +16748,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>500</v>
@@ -16783,7 +16790,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" s="15" t="n">
         <v>981.55</v>
@@ -16805,7 +16812,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" s="15" t="n">
         <v>4560.44</v>
@@ -16883,13 +16890,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" s="15" t="n">
         <v>1068.18</v>
@@ -16905,7 +16912,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="15" t="n">
         <v>1000</v>
@@ -16947,7 +16954,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D52" s="15" t="n">
         <v>1000</v>
@@ -17049,7 +17056,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D57" s="15" t="n">
         <v>405.3</v>
@@ -17071,7 +17078,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" s="15" t="n">
         <v>835.04</v>
@@ -17122,7 +17129,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" s="15" t="n">
         <v>4858.51</v>
@@ -17180,13 +17187,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D66" s="15" t="n">
         <v>730.45</v>
@@ -17228,7 +17235,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D68" s="15" t="n">
         <v>3032.89</v>
@@ -17266,7 +17273,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D70" s="15" t="n">
         <v>2658.37</v>
@@ -17288,7 +17295,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D71" s="15" t="n">
         <v>1500.38</v>
@@ -17321,7 +17328,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>5011.61</v>
@@ -18528,7 +18535,7 @@
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.28"/>
@@ -18542,7 +18549,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -18558,19 +18565,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18583,10 +18590,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="26"/>
@@ -18605,10 +18612,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="26"/>
@@ -18635,13 +18642,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="26" t="n">
         <v>1208.35</v>
@@ -18944,22 +18951,22 @@
       <selection pane="topLeft" activeCell="N81" activeCellId="0" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -18975,19 +18982,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19001,13 +19008,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>375.66</v>
@@ -19053,7 +19060,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>988.82</v>
@@ -19115,7 +19122,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>5285.79</v>
@@ -19135,7 +19142,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>150.26</v>
@@ -19225,13 +19232,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2482.61</v>
@@ -19253,7 +19260,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>1714.79</v>
@@ -19355,7 +19362,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" s="15" t="n">
         <v>13194.79</v>
@@ -19375,7 +19382,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="15" t="n">
         <v>200</v>
@@ -19451,7 +19458,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>5000</v>
@@ -19537,13 +19544,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D37" s="15" t="n">
         <v>500</v>
@@ -19633,7 +19640,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>842.9</v>
@@ -19715,7 +19722,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="15" t="n">
         <v>9187.21</v>
@@ -19734,7 +19741,7 @@
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" s="15" t="n">
         <v>600</v>
@@ -19748,7 +19755,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4" t="n">
         <v>5000</v>
@@ -19809,13 +19816,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" s="15" t="n">
         <v>200</v>
@@ -19992,7 +19999,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D61" s="15" t="n">
         <v>313.05</v>
@@ -20008,7 +20015,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D62" s="15" t="n">
         <v>659.74</v>
@@ -20054,7 +20061,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" s="15" t="n">
         <v>2941.91</v>
@@ -20125,13 +20132,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" s="15" t="n">
         <v>500</v>
@@ -20155,7 +20162,7 @@
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D72" s="15" t="n">
         <v>1700</v>
@@ -20223,7 +20230,7 @@
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D75" s="15" t="n">
         <v>2290.22</v>
@@ -20285,13 +20292,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D80" s="15" t="n">
         <v>295</v>
@@ -20315,7 +20322,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" s="15" t="n">
         <v>316</v>
@@ -22080,21 +22087,21 @@
       <selection pane="topLeft" activeCell="K128" activeCellId="0" sqref="K128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.7"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
@@ -22139,19 +22146,19 @@
         <v>5</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22185,13 +22192,13 @@
         <v>489.94</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" s="15" t="n">
         <v>793.06</v>
@@ -22224,7 +22231,7 @@
       </c>
       <c r="G8" s="26"/>
       <c r="I8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="15" t="n">
         <v>2000</v>
@@ -22257,7 +22264,7 @@
       </c>
       <c r="G9" s="26"/>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" s="15" t="n">
         <v>8050.78</v>
@@ -22399,13 +22406,13 @@
         <v>445.4</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J14" s="15" t="n">
         <v>1000</v>
@@ -22466,7 +22473,7 @@
       </c>
       <c r="G16" s="26"/>
       <c r="I16" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J16" s="15" t="n">
         <v>200</v>
@@ -22800,7 +22807,7 @@
       <c r="M29" s="15" t="n">
         <v>91.97</v>
       </c>
-      <c r="N29" s="56" t="n">
+      <c r="N29" s="5" t="n">
         <v>7222</v>
       </c>
       <c r="O29" s="5" t="n">
@@ -22822,7 +22829,7 @@
       <c r="M30" s="15" t="n">
         <v>457.37</v>
       </c>
-      <c r="N30" s="56" t="n">
+      <c r="N30" s="5" t="n">
         <v>5441</v>
       </c>
       <c r="O30" s="5" t="n">
@@ -22835,7 +22842,7 @@
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
       <c r="I31" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J31" s="15" t="n">
         <v>500</v>
@@ -22846,7 +22853,7 @@
       <c r="M31" s="15" t="n">
         <v>429.55</v>
       </c>
-      <c r="N31" s="56" t="n">
+      <c r="N31" s="5" t="n">
         <v>5441</v>
       </c>
       <c r="O31" s="5" t="n">
@@ -22868,7 +22875,7 @@
       <c r="M32" s="15" t="n">
         <v>1400</v>
       </c>
-      <c r="N32" s="56" t="n">
+      <c r="N32" s="5" t="n">
         <v>2389</v>
       </c>
       <c r="O32" s="5" t="n">
@@ -22890,7 +22897,7 @@
       <c r="M33" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="N33" s="56" t="n">
+      <c r="N33" s="5" t="n">
         <v>5722</v>
       </c>
       <c r="O33" s="5" t="n">
@@ -22912,7 +22919,7 @@
       <c r="M34" s="15" t="n">
         <v>770.1</v>
       </c>
-      <c r="N34" s="56" t="n">
+      <c r="N34" s="5" t="n">
         <v>7899</v>
       </c>
       <c r="O34" s="5" t="n">
@@ -22934,7 +22941,7 @@
       <c r="M35" s="15" t="n">
         <v>277.86</v>
       </c>
-      <c r="N35" s="56" t="n">
+      <c r="N35" s="5" t="n">
         <v>3841</v>
       </c>
       <c r="O35" s="5" t="n">
@@ -22947,7 +22954,7 @@
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="I36" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J36" s="15" t="n">
         <v>797.73</v>
@@ -22958,7 +22965,7 @@
       <c r="M36" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="N36" s="56" t="n">
+      <c r="N36" s="5" t="n">
         <v>8224</v>
       </c>
       <c r="O36" s="5" t="n">
@@ -22971,7 +22978,7 @@
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="I37" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J37" s="15" t="n">
         <v>10994.73</v>
@@ -22980,7 +22987,7 @@
       <c r="M37" s="15" t="n">
         <v>250.06</v>
       </c>
-      <c r="N37" s="56" t="n">
+      <c r="N37" s="5" t="n">
         <v>6208</v>
       </c>
       <c r="O37" s="5" t="n">
@@ -22998,7 +23005,7 @@
       <c r="M38" s="15" t="n">
         <v>800</v>
       </c>
-      <c r="N38" s="56" t="n">
+      <c r="N38" s="5" t="n">
         <v>399</v>
       </c>
       <c r="O38" s="5" t="n">
@@ -23019,7 +23026,7 @@
       <c r="M39" s="15" t="n">
         <v>175</v>
       </c>
-      <c r="N39" s="56" t="n">
+      <c r="N39" s="5" t="n">
         <v>1005</v>
       </c>
       <c r="O39" s="5" t="n">
@@ -23038,7 +23045,7 @@
         <f aca="false">SUM(M27:M39)</f>
         <v>10994.73</v>
       </c>
-      <c r="N40" s="56"/>
+      <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="Q40" s="15"/>
     </row>
@@ -23050,7 +23057,7 @@
       <c r="J41" s="15"/>
       <c r="K41" s="5"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="56"/>
+      <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="Q41" s="15"/>
     </row>
@@ -23058,13 +23065,13 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="J42" s="15" t="n">
         <v>500</v>
@@ -23075,7 +23082,7 @@
       <c r="M42" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="N42" s="56" t="n">
+      <c r="N42" s="5" t="n">
         <v>7390</v>
       </c>
       <c r="O42" s="5" t="n">
@@ -23097,7 +23104,7 @@
       <c r="M43" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="N43" s="56" t="n">
+      <c r="N43" s="5" t="n">
         <v>8091</v>
       </c>
       <c r="O43" s="5" t="n">
@@ -23119,7 +23126,7 @@
       <c r="M44" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="N44" s="56" t="n">
+      <c r="N44" s="5" t="n">
         <v>7518</v>
       </c>
       <c r="O44" s="5" t="n">
@@ -23132,7 +23139,7 @@
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="I45" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J45" s="15" t="n">
         <v>822.89</v>
@@ -23143,7 +23150,7 @@
       <c r="M45" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="N45" s="56" t="n">
+      <c r="N45" s="5" t="n">
         <v>9495</v>
       </c>
       <c r="O45" s="5" t="n">
@@ -23165,7 +23172,7 @@
       <c r="M46" s="15" t="n">
         <v>834.8</v>
       </c>
-      <c r="N46" s="56" t="n">
+      <c r="N46" s="5" t="n">
         <v>1394</v>
       </c>
       <c r="O46" s="5" t="n">
@@ -23188,7 +23195,7 @@
         <f aca="false">SUM(M42:M46)</f>
         <v>2634.8</v>
       </c>
-      <c r="N47" s="56"/>
+      <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="Q47" s="15"/>
     </row>
@@ -23197,14 +23204,14 @@
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="I48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J48" s="15" t="n">
         <v>2634.8</v>
       </c>
       <c r="K48" s="5"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="56"/>
+      <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="Q48" s="15"/>
     </row>
@@ -23216,7 +23223,7 @@
       <c r="J49" s="15"/>
       <c r="K49" s="5"/>
       <c r="M49" s="15"/>
-      <c r="N49" s="56"/>
+      <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="Q49" s="15"/>
     </row>
@@ -23231,7 +23238,7 @@
       </c>
       <c r="K50" s="5"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="56"/>
+      <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="Q50" s="15"/>
     </row>
@@ -23243,7 +23250,7 @@
       <c r="J51" s="15"/>
       <c r="K51" s="5"/>
       <c r="M51" s="15"/>
-      <c r="N51" s="56"/>
+      <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="Q51" s="15"/>
     </row>
@@ -23255,7 +23262,7 @@
       <c r="J52" s="15"/>
       <c r="K52" s="5"/>
       <c r="M52" s="15"/>
-      <c r="N52" s="56"/>
+      <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="Q52" s="15"/>
     </row>
@@ -23267,7 +23274,7 @@
       <c r="J53" s="15"/>
       <c r="K53" s="5"/>
       <c r="M53" s="15"/>
-      <c r="N53" s="56"/>
+      <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="Q53" s="15"/>
     </row>
@@ -23275,13 +23282,13 @@
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J54" s="15" t="n">
         <v>200</v>
@@ -23292,7 +23299,7 @@
       <c r="M54" s="15" t="n">
         <v>1000</v>
       </c>
-      <c r="N54" s="56" t="n">
+      <c r="N54" s="5" t="n">
         <v>1431</v>
       </c>
       <c r="O54" s="5" t="n">
@@ -23314,7 +23321,7 @@
       <c r="M55" s="15" t="n">
         <v>1100</v>
       </c>
-      <c r="N55" s="56" t="n">
+      <c r="N55" s="5" t="n">
         <v>1999</v>
       </c>
       <c r="O55" s="5" t="n">
@@ -23336,7 +23343,7 @@
       <c r="M56" s="15" t="n">
         <v>574.79</v>
       </c>
-      <c r="N56" s="56" t="n">
+      <c r="N56" s="5" t="n">
         <v>1546</v>
       </c>
       <c r="O56" s="5" t="n">
@@ -23358,7 +23365,7 @@
       <c r="M57" s="15" t="n">
         <v>445.4</v>
       </c>
-      <c r="N57" s="56" t="n">
+      <c r="N57" s="5" t="n">
         <v>9796</v>
       </c>
       <c r="O57" s="5" t="n">
@@ -23380,7 +23387,7 @@
       <c r="M58" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="N58" s="56" t="n">
+      <c r="N58" s="5" t="n">
         <v>2740</v>
       </c>
       <c r="O58" s="5" t="n">
@@ -23403,7 +23410,7 @@
         <f aca="false">SUM(M54:M58)</f>
         <v>3420.19</v>
       </c>
-      <c r="N59" s="56"/>
+      <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="Q59" s="15"/>
     </row>
@@ -23412,7 +23419,7 @@
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
       <c r="I60" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J60" s="15" t="n">
         <v>400</v>
@@ -23421,7 +23428,7 @@
         <v>559</v>
       </c>
       <c r="M60" s="15"/>
-      <c r="N60" s="56"/>
+      <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="Q60" s="15"/>
     </row>
@@ -23437,7 +23444,7 @@
         <v>548</v>
       </c>
       <c r="M61" s="15"/>
-      <c r="N61" s="56"/>
+      <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="Q61" s="15"/>
     </row>
@@ -23446,14 +23453,14 @@
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="I62" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J62" s="15" t="n">
         <v>3420.19</v>
       </c>
       <c r="K62" s="5"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="56"/>
+      <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="Q62" s="15"/>
     </row>
@@ -23462,14 +23469,14 @@
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
       <c r="I63" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J63" s="15" t="n">
         <v>400</v>
       </c>
       <c r="K63" s="5"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="56"/>
+      <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="Q63" s="15"/>
     </row>
@@ -23481,7 +23488,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="5"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="56"/>
+      <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="Q64" s="15"/>
     </row>
@@ -23496,7 +23503,7 @@
       </c>
       <c r="K65" s="5"/>
       <c r="M65" s="15"/>
-      <c r="N65" s="56"/>
+      <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="Q65" s="15"/>
     </row>
@@ -23508,7 +23515,7 @@
       <c r="J66" s="15"/>
       <c r="K66" s="5"/>
       <c r="M66" s="15"/>
-      <c r="N66" s="56"/>
+      <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="Q66" s="15"/>
     </row>
@@ -23520,7 +23527,7 @@
       <c r="J67" s="15"/>
       <c r="K67" s="5"/>
       <c r="M67" s="15"/>
-      <c r="N67" s="56"/>
+      <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="Q67" s="15"/>
     </row>
@@ -23528,13 +23535,13 @@
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
       <c r="G68" s="51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H68" s="51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J68" s="15" t="n">
         <v>500</v>
@@ -23545,7 +23552,7 @@
       <c r="M68" s="15" t="n">
         <v>961.04</v>
       </c>
-      <c r="N68" s="56" t="n">
+      <c r="N68" s="5" t="n">
         <v>2946</v>
       </c>
       <c r="O68" s="5" t="n">
@@ -23567,7 +23574,7 @@
       <c r="M69" s="15" t="n">
         <v>555.88</v>
       </c>
-      <c r="N69" s="56" t="n">
+      <c r="N69" s="5" t="n">
         <v>8471</v>
       </c>
       <c r="O69" s="5" t="n">
@@ -23589,7 +23596,7 @@
       <c r="M70" s="15" t="n">
         <v>1345</v>
       </c>
-      <c r="N70" s="56" t="n">
+      <c r="N70" s="5" t="n">
         <v>1108</v>
       </c>
       <c r="O70" s="5" t="n">
@@ -23611,7 +23618,7 @@
       <c r="M71" s="15" t="n">
         <v>176</v>
       </c>
-      <c r="N71" s="56" t="n">
+      <c r="N71" s="5" t="n">
         <v>3099</v>
       </c>
       <c r="O71" s="5" t="n">
@@ -23633,7 +23640,7 @@
       <c r="M72" s="15" t="n">
         <v>417.4</v>
       </c>
-      <c r="N72" s="56" t="n">
+      <c r="N72" s="5" t="n">
         <v>1692</v>
       </c>
       <c r="O72" s="5" t="n">
@@ -23655,7 +23662,7 @@
       <c r="M73" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="N73" s="56" t="n">
+      <c r="N73" s="5" t="n">
         <v>3620</v>
       </c>
       <c r="O73" s="5" t="n">
@@ -23668,7 +23675,7 @@
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
       <c r="I74" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J74" s="15" t="n">
         <v>1289.97</v>
@@ -23679,7 +23686,7 @@
       <c r="M74" s="15" t="n">
         <v>439.4</v>
       </c>
-      <c r="N74" s="56" t="n">
+      <c r="N74" s="5" t="n">
         <v>9305</v>
       </c>
       <c r="O74" s="5" t="n">
@@ -23692,7 +23699,7 @@
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
       <c r="I75" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J75" s="15" t="n">
         <v>200</v>
@@ -23704,7 +23711,7 @@
         <f aca="false">SUM(M68:M74)</f>
         <v>4094.72</v>
       </c>
-      <c r="N75" s="56"/>
+      <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="Q75" s="15"/>
     </row>
@@ -23713,16 +23720,16 @@
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
       <c r="I76" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J76" s="15" t="n">
         <v>4094.72</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M76" s="15"/>
-      <c r="N76" s="56"/>
+      <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="Q76" s="15"/>
     </row>
@@ -23734,7 +23741,7 @@
       <c r="J77" s="15"/>
       <c r="K77" s="5"/>
       <c r="M77" s="15"/>
-      <c r="N77" s="56"/>
+      <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="Q77" s="15"/>
     </row>
@@ -23749,7 +23756,7 @@
       </c>
       <c r="K78" s="5"/>
       <c r="M78" s="15"/>
-      <c r="N78" s="56"/>
+      <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="Q78" s="15"/>
     </row>
@@ -23761,7 +23768,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="5"/>
       <c r="M79" s="15"/>
-      <c r="N79" s="56"/>
+      <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="Q79" s="15"/>
     </row>
@@ -23773,7 +23780,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="5"/>
       <c r="M80" s="15"/>
-      <c r="N80" s="56"/>
+      <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="Q80" s="15"/>
     </row>
@@ -23781,13 +23788,13 @@
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
       <c r="G81" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J81" s="4" t="n">
         <v>187</v>
@@ -23796,7 +23803,7 @@
       <c r="M81" s="4" t="n">
         <v>187</v>
       </c>
-      <c r="N81" s="56" t="n">
+      <c r="N81" s="5" t="n">
         <v>6310</v>
       </c>
       <c r="O81" s="5" t="n">
@@ -23814,14 +23821,14 @@
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
       <c r="I82" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J82" s="4" t="n">
         <v>890</v>
       </c>
       <c r="K82" s="5"/>
       <c r="M82" s="15"/>
-      <c r="N82" s="56"/>
+      <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="Q82" s="15" t="n">
         <v>45</v>
@@ -23840,7 +23847,7 @@
       </c>
       <c r="K83" s="5"/>
       <c r="M83" s="15"/>
-      <c r="N83" s="56"/>
+      <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="Q83" s="4" t="n">
         <f aca="false">SUM(Q81:Q82)</f>
@@ -23857,7 +23864,7 @@
       </c>
       <c r="K84" s="5"/>
       <c r="M84" s="15"/>
-      <c r="N84" s="56"/>
+      <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="Q84" s="15"/>
     </row>
@@ -23871,7 +23878,7 @@
       </c>
       <c r="K85" s="5"/>
       <c r="M85" s="15"/>
-      <c r="N85" s="56"/>
+      <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="Q85" s="15"/>
     </row>
@@ -23880,7 +23887,7 @@
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
       <c r="I86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J86" s="15" t="n">
         <v>4200</v>
@@ -23889,7 +23896,7 @@
         <v>3</v>
       </c>
       <c r="M86" s="15"/>
-      <c r="N86" s="56"/>
+      <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="Q86" s="15"/>
     </row>
@@ -23898,14 +23905,14 @@
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
       <c r="I87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J87" s="15" t="n">
         <v>677.42</v>
       </c>
       <c r="K87" s="5"/>
       <c r="M87" s="15"/>
-      <c r="N87" s="56"/>
+      <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="Q87" s="15"/>
     </row>
@@ -23917,7 +23924,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="5"/>
       <c r="M88" s="15"/>
-      <c r="N88" s="56"/>
+      <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="Q88" s="15"/>
     </row>
@@ -23932,7 +23939,7 @@
       </c>
       <c r="K89" s="5"/>
       <c r="M89" s="15"/>
-      <c r="N89" s="56"/>
+      <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="Q89" s="15"/>
     </row>
@@ -23944,7 +23951,7 @@
       <c r="J90" s="15"/>
       <c r="K90" s="5"/>
       <c r="M90" s="15"/>
-      <c r="N90" s="56"/>
+      <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="Q90" s="15"/>
     </row>
@@ -23959,7 +23966,7 @@
       </c>
       <c r="K91" s="5"/>
       <c r="M91" s="15"/>
-      <c r="N91" s="56"/>
+      <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="Q91" s="15"/>
     </row>
@@ -23971,7 +23978,7 @@
       <c r="J92" s="15"/>
       <c r="K92" s="5"/>
       <c r="M92" s="15"/>
-      <c r="N92" s="56"/>
+      <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="Q92" s="15"/>
     </row>
@@ -23983,7 +23990,7 @@
       <c r="J93" s="15"/>
       <c r="K93" s="5"/>
       <c r="M93" s="15"/>
-      <c r="N93" s="56"/>
+      <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="Q93" s="15"/>
     </row>
@@ -23995,7 +24002,7 @@
       <c r="J94" s="15"/>
       <c r="K94" s="5"/>
       <c r="M94" s="15"/>
-      <c r="N94" s="56"/>
+      <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="Q94" s="15"/>
     </row>
@@ -24009,7 +24016,7 @@
         <v>8176</v>
       </c>
       <c r="M95" s="15"/>
-      <c r="N95" s="56"/>
+      <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="Q95" s="15"/>
     </row>
@@ -24023,7 +24030,7 @@
         <v>8181</v>
       </c>
       <c r="M96" s="15"/>
-      <c r="N96" s="56"/>
+      <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="Q96" s="15"/>
     </row>
@@ -24037,7 +24044,7 @@
         <v>8183</v>
       </c>
       <c r="M97" s="15"/>
-      <c r="N97" s="56"/>
+      <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="Q97" s="15"/>
     </row>
@@ -24051,7 +24058,7 @@
         <v>8185</v>
       </c>
       <c r="M98" s="15"/>
-      <c r="N98" s="56"/>
+      <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="Q98" s="15"/>
     </row>
@@ -24065,7 +24072,7 @@
         <v>8189</v>
       </c>
       <c r="M99" s="15"/>
-      <c r="N99" s="56"/>
+      <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="Q99" s="15"/>
     </row>
@@ -24079,7 +24086,7 @@
         <v>8190</v>
       </c>
       <c r="M100" s="15"/>
-      <c r="N100" s="56"/>
+      <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="Q100" s="15"/>
     </row>
@@ -24093,7 +24100,7 @@
         <v>8196</v>
       </c>
       <c r="M101" s="15"/>
-      <c r="N101" s="56"/>
+      <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="Q101" s="15"/>
     </row>
@@ -24107,7 +24114,7 @@
         <v>8219</v>
       </c>
       <c r="M102" s="15"/>
-      <c r="N102" s="56"/>
+      <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="Q102" s="15"/>
     </row>
@@ -24121,7 +24128,7 @@
         <v>8229</v>
       </c>
       <c r="M103" s="15"/>
-      <c r="N103" s="56"/>
+      <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="Q103" s="15"/>
     </row>
@@ -24135,7 +24142,7 @@
         <v>8233</v>
       </c>
       <c r="M104" s="15"/>
-      <c r="N104" s="56"/>
+      <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="Q104" s="15"/>
     </row>
@@ -24149,7 +24156,7 @@
         <v>8235</v>
       </c>
       <c r="M105" s="15"/>
-      <c r="N105" s="56"/>
+      <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="Q105" s="15"/>
     </row>
@@ -24161,7 +24168,7 @@
       <c r="J106" s="15"/>
       <c r="K106" s="5"/>
       <c r="M106" s="15"/>
-      <c r="N106" s="56"/>
+      <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="Q106" s="15"/>
     </row>
@@ -24175,7 +24182,7 @@
         <v>3775</v>
       </c>
       <c r="M107" s="15"/>
-      <c r="N107" s="56"/>
+      <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="Q107" s="15"/>
     </row>
@@ -24189,7 +24196,7 @@
         <v>3776</v>
       </c>
       <c r="M108" s="15"/>
-      <c r="N108" s="56"/>
+      <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="Q108" s="15"/>
     </row>
@@ -24203,7 +24210,7 @@
         <v>3777</v>
       </c>
       <c r="M109" s="15"/>
-      <c r="N109" s="56"/>
+      <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="Q109" s="15"/>
     </row>
@@ -24217,7 +24224,7 @@
         <v>3778</v>
       </c>
       <c r="M110" s="15"/>
-      <c r="N110" s="56"/>
+      <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="Q110" s="15"/>
     </row>
@@ -24231,7 +24238,7 @@
         <v>3779</v>
       </c>
       <c r="M111" s="15"/>
-      <c r="N111" s="56"/>
+      <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="Q111" s="15"/>
     </row>
@@ -24245,7 +24252,7 @@
         <v>3780</v>
       </c>
       <c r="M112" s="15"/>
-      <c r="N112" s="56"/>
+      <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="Q112" s="15"/>
     </row>
@@ -24259,7 +24266,7 @@
         <v>3781</v>
       </c>
       <c r="M113" s="15"/>
-      <c r="N113" s="56"/>
+      <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="Q113" s="15"/>
     </row>
@@ -24273,7 +24280,7 @@
         <v>3782</v>
       </c>
       <c r="M114" s="15"/>
-      <c r="N114" s="56"/>
+      <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="Q114" s="15"/>
     </row>
@@ -24287,7 +24294,7 @@
         <v>3783</v>
       </c>
       <c r="M115" s="15"/>
-      <c r="N115" s="56"/>
+      <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="Q115" s="15"/>
     </row>
@@ -24301,7 +24308,7 @@
         <v>3784</v>
       </c>
       <c r="M116" s="15"/>
-      <c r="N116" s="56"/>
+      <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="Q116" s="15"/>
     </row>
@@ -24315,7 +24322,7 @@
         <v>3785</v>
       </c>
       <c r="M117" s="15"/>
-      <c r="N117" s="56"/>
+      <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="Q117" s="15"/>
     </row>
@@ -24329,7 +24336,7 @@
         <v>3786</v>
       </c>
       <c r="M118" s="15"/>
-      <c r="N118" s="56"/>
+      <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="Q118" s="15"/>
     </row>
@@ -24343,7 +24350,7 @@
         <v>3787</v>
       </c>
       <c r="M119" s="15"/>
-      <c r="N119" s="56"/>
+      <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="Q119" s="15"/>
     </row>
@@ -24357,7 +24364,7 @@
         <v>3788</v>
       </c>
       <c r="M120" s="15"/>
-      <c r="N120" s="56"/>
+      <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="Q120" s="15"/>
     </row>
@@ -24371,7 +24378,7 @@
         <v>3789</v>
       </c>
       <c r="M121" s="15"/>
-      <c r="N121" s="56"/>
+      <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="Q121" s="15"/>
     </row>
@@ -24385,7 +24392,7 @@
         <v>3790</v>
       </c>
       <c r="M122" s="15"/>
-      <c r="N122" s="56"/>
+      <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="Q122" s="15"/>
     </row>
@@ -24399,7 +24406,7 @@
         <v>3791</v>
       </c>
       <c r="M123" s="15"/>
-      <c r="N123" s="56"/>
+      <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="Q123" s="15"/>
     </row>
@@ -24413,9 +24420,9 @@
         <v>8180</v>
       </c>
       <c r="M124" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N124" s="56"/>
+        <v>120</v>
+      </c>
+      <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="Q124" s="15"/>
     </row>
@@ -24429,7 +24436,7 @@
         <v>3776</v>
       </c>
       <c r="M125" s="15"/>
-      <c r="N125" s="56"/>
+      <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="Q125" s="15"/>
     </row>
@@ -24443,7 +24450,7 @@
         <v>3774</v>
       </c>
       <c r="M126" s="15"/>
-      <c r="N126" s="56"/>
+      <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="Q126" s="15"/>
     </row>
@@ -24457,7 +24464,7 @@
         <v>20</v>
       </c>
       <c r="M127" s="15"/>
-      <c r="N127" s="56"/>
+      <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="Q127" s="15"/>
     </row>
@@ -24469,7 +24476,7 @@
       <c r="J128" s="15"/>
       <c r="K128" s="5"/>
       <c r="M128" s="15"/>
-      <c r="N128" s="56"/>
+      <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="Q128" s="15"/>
     </row>
@@ -24481,7 +24488,7 @@
       <c r="J129" s="15"/>
       <c r="K129" s="5"/>
       <c r="M129" s="15"/>
-      <c r="N129" s="56"/>
+      <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="Q129" s="15"/>
     </row>
@@ -24493,7 +24500,7 @@
       <c r="J130" s="15"/>
       <c r="K130" s="5"/>
       <c r="M130" s="15"/>
-      <c r="N130" s="56"/>
+      <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="Q130" s="15"/>
     </row>
@@ -24505,7 +24512,7 @@
       <c r="J131" s="15"/>
       <c r="K131" s="5"/>
       <c r="M131" s="15"/>
-      <c r="N131" s="56"/>
+      <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="Q131" s="15"/>
     </row>
@@ -24517,7 +24524,7 @@
       <c r="J132" s="15"/>
       <c r="K132" s="5"/>
       <c r="M132" s="15"/>
-      <c r="N132" s="56"/>
+      <c r="N132" s="5"/>
       <c r="O132" s="5"/>
       <c r="Q132" s="15"/>
     </row>
@@ -24529,7 +24536,7 @@
       <c r="J133" s="15"/>
       <c r="K133" s="5"/>
       <c r="M133" s="15"/>
-      <c r="N133" s="56"/>
+      <c r="N133" s="5"/>
       <c r="O133" s="5"/>
       <c r="Q133" s="15"/>
     </row>
@@ -24541,7 +24548,7 @@
       <c r="J134" s="15"/>
       <c r="K134" s="5"/>
       <c r="M134" s="15"/>
-      <c r="N134" s="56"/>
+      <c r="N134" s="5"/>
       <c r="O134" s="5"/>
       <c r="Q134" s="15"/>
     </row>
@@ -24553,7 +24560,7 @@
       <c r="J135" s="15"/>
       <c r="K135" s="5"/>
       <c r="M135" s="15"/>
-      <c r="N135" s="56"/>
+      <c r="N135" s="5"/>
       <c r="O135" s="5"/>
       <c r="Q135" s="15"/>
     </row>
@@ -24565,7 +24572,7 @@
       <c r="J136" s="15"/>
       <c r="K136" s="5"/>
       <c r="M136" s="15"/>
-      <c r="N136" s="56"/>
+      <c r="N136" s="5"/>
       <c r="O136" s="5"/>
       <c r="Q136" s="15"/>
     </row>
@@ -24577,7 +24584,7 @@
       <c r="J137" s="15"/>
       <c r="K137" s="5"/>
       <c r="M137" s="15"/>
-      <c r="N137" s="56"/>
+      <c r="N137" s="5"/>
       <c r="O137" s="5"/>
       <c r="Q137" s="15"/>
     </row>
@@ -24589,7 +24596,7 @@
       <c r="J138" s="15"/>
       <c r="K138" s="5"/>
       <c r="M138" s="15"/>
-      <c r="N138" s="56"/>
+      <c r="N138" s="5"/>
       <c r="O138" s="5"/>
       <c r="Q138" s="15"/>
     </row>
@@ -24601,7 +24608,7 @@
       <c r="J139" s="15"/>
       <c r="K139" s="5"/>
       <c r="M139" s="15"/>
-      <c r="N139" s="56"/>
+      <c r="N139" s="5"/>
       <c r="O139" s="5"/>
       <c r="Q139" s="15"/>
     </row>
@@ -24613,7 +24620,7 @@
       <c r="J140" s="15"/>
       <c r="K140" s="5"/>
       <c r="M140" s="15"/>
-      <c r="N140" s="56"/>
+      <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="Q140" s="15"/>
     </row>
@@ -24625,7 +24632,7 @@
       <c r="J141" s="15"/>
       <c r="K141" s="5"/>
       <c r="M141" s="15"/>
-      <c r="N141" s="56"/>
+      <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="Q141" s="15"/>
     </row>
@@ -24637,7 +24644,7 @@
       <c r="J142" s="15"/>
       <c r="K142" s="5"/>
       <c r="M142" s="15"/>
-      <c r="N142" s="56"/>
+      <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="Q142" s="15"/>
     </row>
@@ -24649,7 +24656,7 @@
       <c r="J143" s="15"/>
       <c r="K143" s="5"/>
       <c r="M143" s="15"/>
-      <c r="N143" s="56"/>
+      <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="Q143" s="15"/>
     </row>
@@ -24661,7 +24668,7 @@
       <c r="J144" s="15"/>
       <c r="K144" s="5"/>
       <c r="M144" s="15"/>
-      <c r="N144" s="56"/>
+      <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="Q144" s="15"/>
     </row>
@@ -24673,7 +24680,7 @@
       <c r="J145" s="15"/>
       <c r="K145" s="5"/>
       <c r="M145" s="15"/>
-      <c r="N145" s="56"/>
+      <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="Q145" s="15"/>
     </row>
@@ -24685,7 +24692,7 @@
       <c r="J146" s="15"/>
       <c r="K146" s="5"/>
       <c r="M146" s="15"/>
-      <c r="N146" s="56"/>
+      <c r="N146" s="5"/>
       <c r="O146" s="5"/>
       <c r="Q146" s="15"/>
     </row>
@@ -24697,7 +24704,7 @@
       <c r="J147" s="15"/>
       <c r="K147" s="5"/>
       <c r="M147" s="15"/>
-      <c r="N147" s="56"/>
+      <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="Q147" s="15"/>
     </row>
@@ -24709,7 +24716,7 @@
       <c r="J148" s="15"/>
       <c r="K148" s="5"/>
       <c r="M148" s="15"/>
-      <c r="N148" s="56"/>
+      <c r="N148" s="5"/>
       <c r="O148" s="5"/>
       <c r="Q148" s="15"/>
     </row>
@@ -24721,7 +24728,7 @@
       <c r="J149" s="15"/>
       <c r="K149" s="5"/>
       <c r="M149" s="15"/>
-      <c r="N149" s="56"/>
+      <c r="N149" s="5"/>
       <c r="O149" s="5"/>
       <c r="Q149" s="15"/>
     </row>
@@ -24733,7 +24740,7 @@
       <c r="J150" s="15"/>
       <c r="K150" s="5"/>
       <c r="M150" s="15"/>
-      <c r="N150" s="56"/>
+      <c r="N150" s="5"/>
       <c r="O150" s="5"/>
       <c r="Q150" s="15"/>
     </row>
@@ -24745,7 +24752,7 @@
       <c r="J151" s="15"/>
       <c r="K151" s="5"/>
       <c r="M151" s="15"/>
-      <c r="N151" s="56"/>
+      <c r="N151" s="5"/>
       <c r="O151" s="5"/>
       <c r="Q151" s="15"/>
     </row>
@@ -24757,7 +24764,7 @@
       <c r="J152" s="15"/>
       <c r="K152" s="5"/>
       <c r="M152" s="15"/>
-      <c r="N152" s="56"/>
+      <c r="N152" s="5"/>
       <c r="O152" s="5"/>
       <c r="Q152" s="15"/>
     </row>
@@ -24769,7 +24776,7 @@
       <c r="J153" s="15"/>
       <c r="K153" s="5"/>
       <c r="M153" s="15"/>
-      <c r="N153" s="56"/>
+      <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="Q153" s="15"/>
     </row>
@@ -24781,7 +24788,7 @@
       <c r="J154" s="15"/>
       <c r="K154" s="5"/>
       <c r="M154" s="15"/>
-      <c r="N154" s="56"/>
+      <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="Q154" s="15"/>
     </row>
@@ -24793,7 +24800,7 @@
       <c r="J155" s="15"/>
       <c r="K155" s="5"/>
       <c r="M155" s="15"/>
-      <c r="N155" s="56"/>
+      <c r="N155" s="5"/>
       <c r="O155" s="5"/>
       <c r="Q155" s="15"/>
     </row>
@@ -24805,7 +24812,7 @@
       <c r="J156" s="15"/>
       <c r="K156" s="5"/>
       <c r="M156" s="15"/>
-      <c r="N156" s="56"/>
+      <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="Q156" s="15"/>
     </row>
@@ -24817,7 +24824,7 @@
       <c r="J157" s="15"/>
       <c r="K157" s="5"/>
       <c r="M157" s="15"/>
-      <c r="N157" s="56"/>
+      <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="Q157" s="15"/>
     </row>
@@ -24829,7 +24836,7 @@
       <c r="J158" s="15"/>
       <c r="K158" s="5"/>
       <c r="M158" s="15"/>
-      <c r="N158" s="56"/>
+      <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="Q158" s="15"/>
     </row>
@@ -24841,7 +24848,7 @@
       <c r="J159" s="15"/>
       <c r="K159" s="5"/>
       <c r="M159" s="15"/>
-      <c r="N159" s="56"/>
+      <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="Q159" s="15"/>
     </row>
@@ -24853,7 +24860,7 @@
       <c r="J160" s="15"/>
       <c r="K160" s="5"/>
       <c r="M160" s="15"/>
-      <c r="N160" s="56"/>
+      <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="Q160" s="15"/>
     </row>
@@ -24865,7 +24872,7 @@
       <c r="J161" s="15"/>
       <c r="K161" s="5"/>
       <c r="M161" s="15"/>
-      <c r="N161" s="56"/>
+      <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="Q161" s="15"/>
     </row>
@@ -24877,7 +24884,7 @@
       <c r="J162" s="15"/>
       <c r="K162" s="5"/>
       <c r="M162" s="15"/>
-      <c r="N162" s="56"/>
+      <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="Q162" s="15"/>
     </row>
@@ -24889,7 +24896,7 @@
       <c r="J163" s="15"/>
       <c r="K163" s="5"/>
       <c r="M163" s="15"/>
-      <c r="N163" s="56"/>
+      <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="Q163" s="15"/>
     </row>
@@ -24901,7 +24908,7 @@
       <c r="J164" s="15"/>
       <c r="K164" s="5"/>
       <c r="M164" s="15"/>
-      <c r="N164" s="56"/>
+      <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="Q164" s="15"/>
     </row>
@@ -24913,7 +24920,7 @@
       <c r="J165" s="15"/>
       <c r="K165" s="5"/>
       <c r="M165" s="15"/>
-      <c r="N165" s="56"/>
+      <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="Q165" s="15"/>
     </row>
@@ -24925,7 +24932,7 @@
       <c r="J166" s="15"/>
       <c r="K166" s="5"/>
       <c r="M166" s="15"/>
-      <c r="N166" s="56"/>
+      <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="Q166" s="15"/>
     </row>
@@ -24937,7 +24944,7 @@
       <c r="J167" s="15"/>
       <c r="K167" s="5"/>
       <c r="M167" s="15"/>
-      <c r="N167" s="56"/>
+      <c r="N167" s="5"/>
       <c r="O167" s="5"/>
       <c r="Q167" s="15"/>
     </row>
@@ -24949,7 +24956,7 @@
       <c r="J168" s="15"/>
       <c r="K168" s="5"/>
       <c r="M168" s="15"/>
-      <c r="N168" s="56"/>
+      <c r="N168" s="5"/>
       <c r="O168" s="5"/>
       <c r="Q168" s="15"/>
     </row>
@@ -24961,7 +24968,7 @@
       <c r="J169" s="15"/>
       <c r="K169" s="5"/>
       <c r="M169" s="15"/>
-      <c r="N169" s="56"/>
+      <c r="N169" s="5"/>
       <c r="O169" s="5"/>
       <c r="Q169" s="15"/>
     </row>
@@ -24973,7 +24980,7 @@
       <c r="J170" s="15"/>
       <c r="K170" s="5"/>
       <c r="M170" s="15"/>
-      <c r="N170" s="56"/>
+      <c r="N170" s="5"/>
       <c r="O170" s="5"/>
       <c r="Q170" s="15"/>
     </row>
@@ -24985,7 +24992,7 @@
       <c r="J171" s="15"/>
       <c r="K171" s="5"/>
       <c r="M171" s="15"/>
-      <c r="N171" s="56"/>
+      <c r="N171" s="5"/>
       <c r="O171" s="5"/>
       <c r="Q171" s="15"/>
     </row>
@@ -24997,7 +25004,7 @@
       <c r="J172" s="15"/>
       <c r="K172" s="5"/>
       <c r="M172" s="15"/>
-      <c r="N172" s="56"/>
+      <c r="N172" s="5"/>
       <c r="O172" s="5"/>
       <c r="Q172" s="15"/>
     </row>
@@ -25009,7 +25016,7 @@
       <c r="J173" s="15"/>
       <c r="K173" s="5"/>
       <c r="M173" s="15"/>
-      <c r="N173" s="56"/>
+      <c r="N173" s="5"/>
       <c r="O173" s="5"/>
       <c r="Q173" s="15"/>
     </row>
@@ -25020,7 +25027,7 @@
       <c r="J174" s="15"/>
       <c r="K174" s="5"/>
       <c r="M174" s="15"/>
-      <c r="N174" s="56"/>
+      <c r="N174" s="5"/>
       <c r="O174" s="5"/>
       <c r="Q174" s="15"/>
     </row>
@@ -25031,7 +25038,7 @@
       <c r="J175" s="15"/>
       <c r="K175" s="5"/>
       <c r="M175" s="15"/>
-      <c r="N175" s="56"/>
+      <c r="N175" s="5"/>
       <c r="O175" s="5"/>
       <c r="Q175" s="15"/>
     </row>
@@ -25042,7 +25049,7 @@
       <c r="J176" s="15"/>
       <c r="K176" s="5"/>
       <c r="M176" s="15"/>
-      <c r="N176" s="56"/>
+      <c r="N176" s="5"/>
       <c r="O176" s="5"/>
       <c r="Q176" s="15"/>
     </row>
@@ -25053,7 +25060,7 @@
       <c r="J177" s="15"/>
       <c r="K177" s="5"/>
       <c r="M177" s="15"/>
-      <c r="N177" s="56"/>
+      <c r="N177" s="5"/>
       <c r="O177" s="5"/>
       <c r="Q177" s="15"/>
     </row>
@@ -25064,7 +25071,7 @@
       <c r="J178" s="15"/>
       <c r="K178" s="5"/>
       <c r="M178" s="15"/>
-      <c r="N178" s="56"/>
+      <c r="N178" s="5"/>
       <c r="O178" s="5"/>
       <c r="Q178" s="15"/>
     </row>
@@ -25075,7 +25082,7 @@
       <c r="J179" s="15"/>
       <c r="K179" s="5"/>
       <c r="M179" s="15"/>
-      <c r="N179" s="56"/>
+      <c r="N179" s="5"/>
       <c r="O179" s="5"/>
       <c r="Q179" s="15"/>
     </row>
@@ -25086,7 +25093,7 @@
       <c r="J180" s="15"/>
       <c r="K180" s="5"/>
       <c r="M180" s="15"/>
-      <c r="N180" s="56"/>
+      <c r="N180" s="5"/>
       <c r="O180" s="5"/>
       <c r="Q180" s="15"/>
     </row>
@@ -25097,7 +25104,7 @@
       <c r="J181" s="15"/>
       <c r="K181" s="5"/>
       <c r="M181" s="15"/>
-      <c r="N181" s="56"/>
+      <c r="N181" s="5"/>
       <c r="O181" s="5"/>
       <c r="Q181" s="15"/>
     </row>
@@ -25108,7 +25115,7 @@
       <c r="J182" s="15"/>
       <c r="K182" s="5"/>
       <c r="M182" s="15"/>
-      <c r="N182" s="56"/>
+      <c r="N182" s="5"/>
       <c r="O182" s="5"/>
       <c r="Q182" s="15"/>
     </row>
@@ -25119,7 +25126,7 @@
       <c r="J183" s="15"/>
       <c r="K183" s="5"/>
       <c r="M183" s="15"/>
-      <c r="N183" s="56"/>
+      <c r="N183" s="5"/>
       <c r="O183" s="5"/>
       <c r="Q183" s="15"/>
     </row>
@@ -25130,7 +25137,7 @@
       <c r="J184" s="15"/>
       <c r="K184" s="5"/>
       <c r="M184" s="15"/>
-      <c r="N184" s="56"/>
+      <c r="N184" s="5"/>
       <c r="O184" s="5"/>
       <c r="Q184" s="15"/>
     </row>
@@ -25141,7 +25148,7 @@
       <c r="J185" s="15"/>
       <c r="K185" s="5"/>
       <c r="M185" s="15"/>
-      <c r="N185" s="56"/>
+      <c r="N185" s="5"/>
       <c r="O185" s="5"/>
       <c r="Q185" s="15"/>
     </row>
@@ -25152,7 +25159,7 @@
       <c r="J186" s="15"/>
       <c r="K186" s="5"/>
       <c r="M186" s="15"/>
-      <c r="N186" s="56"/>
+      <c r="N186" s="5"/>
       <c r="O186" s="5"/>
       <c r="Q186" s="15"/>
     </row>
@@ -25163,7 +25170,7 @@
       <c r="J187" s="15"/>
       <c r="K187" s="5"/>
       <c r="M187" s="15"/>
-      <c r="N187" s="56"/>
+      <c r="N187" s="5"/>
       <c r="O187" s="5"/>
       <c r="Q187" s="15"/>
     </row>
@@ -25174,7 +25181,7 @@
       <c r="J188" s="15"/>
       <c r="K188" s="5"/>
       <c r="M188" s="15"/>
-      <c r="N188" s="56"/>
+      <c r="N188" s="5"/>
       <c r="O188" s="5"/>
       <c r="Q188" s="15"/>
     </row>
@@ -25185,7 +25192,7 @@
       <c r="J189" s="15"/>
       <c r="K189" s="5"/>
       <c r="M189" s="15"/>
-      <c r="N189" s="56"/>
+      <c r="N189" s="5"/>
       <c r="O189" s="5"/>
       <c r="Q189" s="15"/>
     </row>
@@ -25196,7 +25203,7 @@
       <c r="J190" s="15"/>
       <c r="K190" s="5"/>
       <c r="M190" s="15"/>
-      <c r="N190" s="56"/>
+      <c r="N190" s="5"/>
       <c r="O190" s="5"/>
       <c r="Q190" s="15"/>
     </row>
@@ -25207,7 +25214,7 @@
       <c r="J191" s="15"/>
       <c r="K191" s="5"/>
       <c r="M191" s="15"/>
-      <c r="N191" s="56"/>
+      <c r="N191" s="5"/>
       <c r="O191" s="5"/>
       <c r="Q191" s="15"/>
     </row>
@@ -25218,7 +25225,7 @@
       <c r="J192" s="15"/>
       <c r="K192" s="5"/>
       <c r="M192" s="15"/>
-      <c r="N192" s="56"/>
+      <c r="N192" s="5"/>
       <c r="O192" s="5"/>
       <c r="Q192" s="15"/>
     </row>
@@ -25229,7 +25236,7 @@
       <c r="J193" s="15"/>
       <c r="K193" s="5"/>
       <c r="M193" s="15"/>
-      <c r="N193" s="56"/>
+      <c r="N193" s="5"/>
       <c r="O193" s="5"/>
       <c r="Q193" s="15"/>
     </row>
@@ -25240,7 +25247,7 @@
       <c r="J194" s="15"/>
       <c r="K194" s="5"/>
       <c r="M194" s="15"/>
-      <c r="N194" s="56"/>
+      <c r="N194" s="5"/>
       <c r="O194" s="5"/>
       <c r="Q194" s="15"/>
     </row>
@@ -25251,7 +25258,7 @@
       <c r="J195" s="15"/>
       <c r="K195" s="5"/>
       <c r="M195" s="15"/>
-      <c r="N195" s="56"/>
+      <c r="N195" s="5"/>
       <c r="O195" s="5"/>
       <c r="Q195" s="15"/>
     </row>
@@ -25262,7 +25269,7 @@
       <c r="J196" s="15"/>
       <c r="K196" s="5"/>
       <c r="M196" s="15"/>
-      <c r="N196" s="56"/>
+      <c r="N196" s="5"/>
       <c r="O196" s="5"/>
       <c r="Q196" s="15"/>
     </row>
@@ -25273,7 +25280,7 @@
       <c r="J197" s="15"/>
       <c r="K197" s="5"/>
       <c r="M197" s="15"/>
-      <c r="N197" s="56"/>
+      <c r="N197" s="5"/>
       <c r="O197" s="5"/>
       <c r="Q197" s="15"/>
     </row>
@@ -25284,7 +25291,7 @@
       <c r="J198" s="15"/>
       <c r="K198" s="5"/>
       <c r="M198" s="15"/>
-      <c r="N198" s="56"/>
+      <c r="N198" s="5"/>
       <c r="O198" s="5"/>
       <c r="Q198" s="15"/>
     </row>
@@ -25295,7 +25302,7 @@
       <c r="J199" s="15"/>
       <c r="K199" s="5"/>
       <c r="M199" s="15"/>
-      <c r="N199" s="56"/>
+      <c r="N199" s="5"/>
       <c r="O199" s="5"/>
       <c r="Q199" s="15"/>
     </row>
@@ -25306,7 +25313,7 @@
       <c r="J200" s="15"/>
       <c r="K200" s="5"/>
       <c r="M200" s="15"/>
-      <c r="N200" s="56"/>
+      <c r="N200" s="5"/>
       <c r="O200" s="5"/>
       <c r="Q200" s="15"/>
     </row>
@@ -25317,7 +25324,7 @@
       <c r="J201" s="15"/>
       <c r="K201" s="5"/>
       <c r="M201" s="15"/>
-      <c r="N201" s="56"/>
+      <c r="N201" s="5"/>
       <c r="O201" s="5"/>
       <c r="Q201" s="15"/>
     </row>
@@ -25328,7 +25335,7 @@
       <c r="J202" s="15"/>
       <c r="K202" s="5"/>
       <c r="M202" s="15"/>
-      <c r="N202" s="56"/>
+      <c r="N202" s="5"/>
       <c r="O202" s="5"/>
       <c r="Q202" s="15"/>
     </row>
@@ -25339,7 +25346,7 @@
       <c r="J203" s="15"/>
       <c r="K203" s="5"/>
       <c r="M203" s="15"/>
-      <c r="N203" s="56"/>
+      <c r="N203" s="5"/>
       <c r="O203" s="5"/>
       <c r="Q203" s="15"/>
     </row>
@@ -25350,7 +25357,7 @@
       <c r="J204" s="15"/>
       <c r="K204" s="5"/>
       <c r="M204" s="15"/>
-      <c r="N204" s="56"/>
+      <c r="N204" s="5"/>
       <c r="O204" s="5"/>
       <c r="Q204" s="15"/>
     </row>
@@ -25361,7 +25368,7 @@
       <c r="J205" s="15"/>
       <c r="K205" s="5"/>
       <c r="M205" s="15"/>
-      <c r="N205" s="56"/>
+      <c r="N205" s="5"/>
       <c r="O205" s="5"/>
       <c r="Q205" s="15"/>
     </row>
@@ -25372,7 +25379,7 @@
       <c r="J206" s="15"/>
       <c r="K206" s="5"/>
       <c r="M206" s="15"/>
-      <c r="N206" s="56"/>
+      <c r="N206" s="5"/>
       <c r="O206" s="5"/>
       <c r="Q206" s="15"/>
     </row>
@@ -25383,7 +25390,7 @@
       <c r="J207" s="15"/>
       <c r="K207" s="5"/>
       <c r="M207" s="15"/>
-      <c r="N207" s="56"/>
+      <c r="N207" s="5"/>
       <c r="O207" s="5"/>
       <c r="Q207" s="15"/>
     </row>
@@ -25394,7 +25401,7 @@
       <c r="J208" s="15"/>
       <c r="K208" s="5"/>
       <c r="M208" s="15"/>
-      <c r="N208" s="56"/>
+      <c r="N208" s="5"/>
       <c r="O208" s="5"/>
       <c r="Q208" s="15"/>
     </row>
@@ -25405,7 +25412,7 @@
       <c r="J209" s="15"/>
       <c r="K209" s="5"/>
       <c r="M209" s="15"/>
-      <c r="N209" s="56"/>
+      <c r="N209" s="5"/>
       <c r="O209" s="5"/>
       <c r="Q209" s="15"/>
     </row>
@@ -25415,7 +25422,7 @@
       <c r="J210" s="15"/>
       <c r="K210" s="5"/>
       <c r="M210" s="15"/>
-      <c r="N210" s="56"/>
+      <c r="N210" s="5"/>
       <c r="O210" s="5"/>
       <c r="Q210" s="15"/>
     </row>
@@ -25425,7 +25432,7 @@
       <c r="J211" s="15"/>
       <c r="K211" s="5"/>
       <c r="M211" s="15"/>
-      <c r="N211" s="56"/>
+      <c r="N211" s="5"/>
       <c r="O211" s="5"/>
       <c r="Q211" s="15"/>
     </row>
@@ -25542,14 +25549,14 @@
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -25565,27 +25572,27 @@
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="15"/>
@@ -25603,10 +25610,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="15"/>
@@ -25619,13 +25626,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>1000</v>
@@ -25633,7 +25640,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>626.1</v>
@@ -25644,7 +25651,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>948.36</v>
@@ -25665,10 +25672,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -25686,13 +25693,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>4000</v>
@@ -25999,11 +26006,11 @@
   </sheetPr>
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -26028,10 +26035,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -26047,10 +26054,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>1300</v>
@@ -26068,7 +26075,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="15" t="n">
         <v>1500</v>
@@ -26136,7 +26143,7 @@
         <v>880.11</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
@@ -26161,10 +26168,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="15" t="n">
         <v>1000</v>
@@ -26247,7 +26254,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" s="15" t="n">
         <v>656.22</v>
@@ -26265,7 +26272,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="15" t="n">
         <v>521.75</v>
@@ -26315,7 +26322,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="15" t="n">
         <v>250</v>
@@ -26397,10 +26404,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="15" t="n">
         <v>700.4</v>
@@ -26434,7 +26441,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28" s="15" t="n">
         <v>310.02</v>
@@ -26452,7 +26459,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="15" t="n">
         <v>425.74</v>
@@ -26470,7 +26477,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15" t="n">
         <v>1300</v>
@@ -26539,10 +26546,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" s="15" t="n">
         <v>113</v>
@@ -26608,7 +26615,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" s="15" t="n">
         <v>108</v>
@@ -27015,7 +27022,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -27038,7 +27045,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -27061,7 +27068,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -27084,7 +27091,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -27107,7 +27114,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -27130,7 +27137,7 @@
       <selection pane="topLeft" activeCell="L45" activeCellId="0" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.14"/>
@@ -27143,24 +27150,24 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O3" s="26"/>
       <c r="T3" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="W4" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="56" t="s">
         <v>121</v>
       </c>
+      <c r="W4" s="56" t="s">
+        <v>122</v>
+      </c>
       <c r="X4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27172,10 +27179,10 @@
       <c r="U5" s="26" t="n">
         <v>14500</v>
       </c>
-      <c r="V5" s="58" t="n">
+      <c r="V5" s="57" t="n">
         <v>5097742</v>
       </c>
-      <c r="W5" s="57" t="n">
+      <c r="W5" s="56" t="n">
         <v>1165718</v>
       </c>
       <c r="X5" s="0" t="n">
@@ -27207,10 +27214,10 @@
       <c r="U6" s="26" t="n">
         <v>2840</v>
       </c>
-      <c r="V6" s="58" t="n">
+      <c r="V6" s="57" t="n">
         <v>5559448</v>
       </c>
-      <c r="W6" s="57" t="n">
+      <c r="W6" s="56" t="n">
         <v>1294874</v>
       </c>
       <c r="X6" s="0" t="n">
@@ -27225,10 +27232,10 @@
         <v>5000</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="26" t="n">
         <v>1050.01</v>
@@ -27248,8 +27255,8 @@
       <c r="U7" s="26" t="n">
         <v>5800</v>
       </c>
-      <c r="V7" s="58"/>
-      <c r="W7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="26" t="n">
@@ -27288,8 +27295,8 @@
       <c r="U8" s="26" t="n">
         <v>19000</v>
       </c>
-      <c r="V8" s="58"/>
-      <c r="W8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="26" t="n">
@@ -27310,8 +27317,8 @@
       <c r="U9" s="26" t="n">
         <v>13000</v>
       </c>
-      <c r="V9" s="58"/>
-      <c r="W9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="26" t="n">
@@ -27332,8 +27339,8 @@
       <c r="U10" s="26" t="n">
         <v>8000</v>
       </c>
-      <c r="V10" s="58"/>
-      <c r="W10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="26" t="n">
@@ -27354,8 +27361,8 @@
       <c r="U11" s="26" t="n">
         <v>1500</v>
       </c>
-      <c r="V11" s="58"/>
-      <c r="W11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="26" t="n">
@@ -27377,10 +27384,10 @@
         <f aca="false">SUM(U5:U11)</f>
         <v>64640</v>
       </c>
-      <c r="V12" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="57"/>
+      <c r="V12" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="26" t="n">
@@ -27399,8 +27406,8 @@
         <v>1200</v>
       </c>
       <c r="U13" s="26"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="26" t="n">
@@ -27421,8 +27428,8 @@
         <v>5364.77</v>
       </c>
       <c r="U14" s="26"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="26" t="n">
@@ -27437,8 +27444,8 @@
       <c r="P15" s="26"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="26" t="n">
@@ -27453,8 +27460,8 @@
       <c r="P16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="26" t="n">
@@ -27470,8 +27477,8 @@
       <c r="P17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="26" t="n">
@@ -27484,8 +27491,8 @@
       <c r="P18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="26" t="n">
@@ -27498,8 +27505,8 @@
       <c r="P19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="26" t="n">
@@ -27513,8 +27520,8 @@
       <c r="P20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="26" t="n">
@@ -27525,8 +27532,8 @@
       <c r="P21" s="26"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="26" t="n">
@@ -27537,8 +27544,8 @@
       <c r="P22" s="26"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="26" t="n">
@@ -27549,8 +27556,8 @@
       <c r="P23" s="26"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="26" t="n">
@@ -27561,8 +27568,8 @@
       <c r="P24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="26" t="n">
@@ -27573,8 +27580,8 @@
       <c r="P25" s="26"/>
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="10" t="n">
@@ -27586,8 +27593,8 @@
       <c r="P26" s="26"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="26"/>
@@ -27595,8 +27602,8 @@
       <c r="O27" s="26"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="26"/>
@@ -27641,7 +27648,6 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="H33" s="59"/>
       <c r="O33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
@@ -27650,12 +27656,11 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="H34" s="59"/>
       <c r="L34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O34" s="26"/>
       <c r="T34" s="26"/>
@@ -27664,7 +27669,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="26" t="n">
         <v>200</v>
@@ -27735,7 +27740,6 @@
         <v>16000</v>
       </c>
       <c r="F37" s="26"/>
-      <c r="H37" s="59"/>
       <c r="J37" s="26" t="n">
         <v>1159.99</v>
       </c>
@@ -27762,7 +27766,7 @@
         <v>12500</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="26"/>
       <c r="T38" s="26"/>
@@ -28025,11 +28029,11 @@
   </sheetPr>
   <dimension ref="A3:L336"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
@@ -28040,7 +28044,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -28058,16 +28062,16 @@
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28077,13 +28081,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>1147.85</v>
@@ -28121,7 +28125,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>500</v>
@@ -28180,7 +28184,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>1000</v>
@@ -28201,7 +28205,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>357.29</v>
@@ -28241,7 +28245,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>668.1</v>
@@ -28275,7 +28279,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>1000.37</v>
@@ -28294,7 +28298,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>1289.39</v>
@@ -28331,13 +28335,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>500</v>
@@ -28434,7 +28438,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" s="15" t="n">
         <v>187.83</v>
@@ -28455,7 +28459,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" s="15" t="n">
         <v>7872.95</v>
@@ -28474,7 +28478,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D27" s="15" t="n">
         <v>800</v>
@@ -28505,13 +28509,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="15" t="n">
         <v>1000</v>
@@ -28570,7 +28574,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" s="15" t="n">
         <v>500</v>
@@ -28623,7 +28627,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="15" t="n">
         <v>2087.15</v>
@@ -28642,7 +28646,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D36" s="15" t="n">
         <v>1600.08</v>
@@ -28663,7 +28667,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="15" t="n">
         <v>873.46</v>
@@ -28713,7 +28717,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="15" t="n">
         <v>20836.63</v>
@@ -28726,7 +28730,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>120.07</v>
@@ -28760,13 +28764,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" s="15" t="n">
         <v>500</v>
@@ -28781,7 +28785,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="15" t="n">
         <v>429.4</v>
@@ -28835,7 +28839,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49" s="15" t="n">
         <v>5492.12</v>
@@ -28869,13 +28873,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D52" s="15" t="n">
         <v>2087.15</v>
@@ -28890,7 +28894,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="15" t="n">
         <v>4000</v>
@@ -28905,7 +28909,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" s="15" t="n">
         <v>1500.11</v>
@@ -28918,7 +28922,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55" s="15" t="n">
         <v>200.29</v>
@@ -28931,10 +28935,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D56" s="15" t="n">
         <v>7689.5</v>
@@ -28977,13 +28981,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" s="15" t="n">
         <v>381</v>
@@ -29014,13 +29018,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D63" s="15" t="n">
         <v>1799</v>
@@ -29033,10 +29037,10 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="5"/>
@@ -30791,7 +30795,7 @@
       <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.28"/>
@@ -30827,13 +30831,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>1000</v>
@@ -30881,13 +30885,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>300</v>
@@ -30922,7 +30926,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>524.05</v>
@@ -30952,10 +30956,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
@@ -30985,13 +30989,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>1000</v>
@@ -31004,7 +31008,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>999.88</v>
@@ -31039,7 +31043,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="15" t="n">
         <v>516.78</v>
@@ -31052,7 +31056,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="15" t="n">
         <v>150</v>
@@ -31072,7 +31076,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="15" t="n">
         <v>4770</v>
@@ -33389,7 +33393,7 @@
       <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
@@ -33397,7 +33401,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -33416,19 +33420,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>5</v>
@@ -33447,13 +33451,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>500</v>
@@ -33497,7 +33501,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>700.4</v>
@@ -33541,7 +33545,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>714.64</v>
@@ -33564,7 +33568,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>1191.1</v>
@@ -33579,7 +33583,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>190</v>
@@ -33607,7 +33611,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>730.45</v>
@@ -33622,7 +33626,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>600</v>
@@ -33682,13 +33686,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>500</v>
@@ -33732,7 +33736,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23" s="15" t="n">
         <v>4382.39</v>
@@ -33895,13 +33899,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="15" t="n">
         <v>200</v>
@@ -33953,7 +33957,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="15" t="n">
         <v>500.19</v>
@@ -34052,7 +34056,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="15" t="n">
         <v>2938.8</v>
@@ -34069,7 +34073,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D41" s="15" t="n">
         <v>790.66</v>
@@ -34139,13 +34143,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D46" s="15" t="n">
         <v>2500</v>
@@ -34193,7 +34197,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="15" t="n">
         <v>1842.63</v>
@@ -34288,13 +34292,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D54" s="15" t="n">
         <v>500</v>
@@ -34434,7 +34438,7 @@
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" s="15" t="n">
         <v>594.09</v>
@@ -34470,7 +34474,7 @@
       <c r="A62" s="5"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D62" s="15" t="n">
         <v>5108.7</v>
@@ -34487,7 +34491,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="15" t="n">
         <v>300</v>
@@ -34504,7 +34508,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64" s="15" t="n">
         <v>4809.01</v>
@@ -35005,7 +35009,7 @@
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
@@ -35016,7 +35020,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -35035,10 +35039,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
@@ -35046,13 +35050,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="26" t="n">
         <v>905.8</v>
@@ -35086,7 +35090,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="26" t="n">
         <v>334.05</v>
@@ -35131,13 +35135,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="26" t="n">
         <v>3209.47</v>
@@ -35157,7 +35161,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26" t="n">
         <v>200</v>
@@ -35237,13 +35241,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="26" t="n">
         <v>1043.5</v>
@@ -35347,13 +35351,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="26" t="n">
         <v>1000</v>
@@ -35369,7 +35373,7 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" s="26" t="n">
         <v>1000</v>
@@ -35440,13 +35444,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="26" t="n">
         <v>834.8</v>
@@ -35460,7 +35464,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="26" t="n">
         <v>800</v>
@@ -35476,7 +35480,7 @@
       <c r="A35" s="5"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="26" t="n">
         <v>1600</v>
@@ -35525,13 +35529,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D39" s="26" t="n">
         <v>476</v>
@@ -35545,7 +35549,7 @@
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="26" t="n">
         <v>2908</v>
@@ -35559,7 +35563,7 @@
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41" s="26" t="n">
         <v>455</v>
@@ -35573,7 +35577,7 @@
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D42" s="26" t="n">
         <v>580</v>
@@ -35806,7 +35810,7 @@
       <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.43"/>
@@ -35815,7 +35819,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -35834,19 +35838,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35859,13 +35863,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>2500</v>
@@ -35919,7 +35923,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>995.29</v>
@@ -35967,7 +35971,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="31"/>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>1002.15</v>
@@ -36039,7 +36043,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="31"/>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>917.54</v>
@@ -36055,7 +36059,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="31"/>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>1720.07</v>
@@ -36071,7 +36075,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="31"/>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>255.03</v>
@@ -36124,13 +36128,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>2972.76</v>
@@ -36152,7 +36156,7 @@
       <c r="A22" s="5"/>
       <c r="B22" s="31"/>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>200</v>
@@ -36276,13 +36280,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" s="15" t="n">
         <v>1318.2</v>
@@ -36311,7 +36315,7 @@
       <c r="A31" s="5"/>
       <c r="B31" s="31"/>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="15" t="n">
         <v>565.13</v>
@@ -36435,7 +36439,7 @@
       <c r="A36" s="5"/>
       <c r="B36" s="31"/>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" s="15" t="n">
         <v>6195.07</v>
@@ -36458,7 +36462,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="31"/>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D37" s="15" t="n">
         <v>1182.77</v>
@@ -36475,7 +36479,7 @@
       <c r="A38" s="5"/>
       <c r="B38" s="31"/>
       <c r="C38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="15" t="n">
         <v>1800</v>
@@ -36535,13 +36539,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" s="15" t="n">
         <v>200</v>
@@ -36738,7 +36742,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="31"/>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" s="15" t="n">
         <v>582.93</v>
@@ -36794,7 +36798,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="31"/>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" s="15" t="n">
         <v>3376.19</v>
@@ -36811,7 +36815,7 @@
       <c r="A54" s="5"/>
       <c r="B54" s="31"/>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D54" s="15" t="n">
         <v>600</v>
@@ -36868,13 +36872,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58" s="15" t="n">
         <v>2500</v>
@@ -36930,7 +36934,7 @@
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="15" t="n">
         <v>388.06</v>
@@ -36964,7 +36968,7 @@
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D63" s="15" t="n">
         <v>100</v>
@@ -37007,13 +37011,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D66" s="15" t="n">
         <v>126</v>
@@ -37035,7 +37039,7 @@
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D67" s="15" t="n">
         <v>120</v>
@@ -37057,7 +37061,7 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" s="15" t="n">
         <v>60</v>
@@ -37309,14 +37313,14 @@
       <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -37335,19 +37339,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>5</v>
@@ -37368,13 +37372,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>1900</v>
@@ -37510,7 +37514,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>150</v>
@@ -37531,7 +37535,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="31"/>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>300</v>
@@ -37552,7 +37556,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="31"/>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>3645.48</v>
@@ -37570,7 +37574,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="31"/>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>2509.59</v>
@@ -37647,13 +37651,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>1565.25</v>
@@ -37727,7 +37731,7 @@
       <c r="A23" s="5"/>
       <c r="B23" s="31"/>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" s="15" t="n">
         <v>1800</v>
@@ -37753,7 +37757,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="31"/>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="15" t="n">
         <v>14187.49</v>
@@ -37977,13 +37981,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36" s="15" t="n">
         <v>500</v>
@@ -38013,7 +38017,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="31"/>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="15" t="n">
         <v>1000</v>
@@ -38087,7 +38091,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="31"/>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" s="15" t="n">
         <v>200</v>
@@ -38200,7 +38204,7 @@
       <c r="A46" s="5"/>
       <c r="B46" s="31"/>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="15" t="n">
         <v>960.02</v>
@@ -38220,7 +38224,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="31"/>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="15" t="n">
         <v>445.45</v>
@@ -38240,7 +38244,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="31"/>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="15" t="n">
         <v>2683.26</v>
@@ -38258,7 +38262,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="31"/>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" s="15" t="n">
         <v>200</v>
@@ -38347,13 +38351,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="15" t="n">
         <v>2500</v>
@@ -38427,7 +38431,7 @@
       <c r="A58" s="5"/>
       <c r="B58" s="31"/>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D58" s="15" t="n">
         <v>556.75</v>
@@ -38453,7 +38457,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="31"/>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D59" s="15" t="n">
         <v>2552.02</v>
@@ -38597,13 +38601,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" s="15" t="n">
         <v>2087.15</v>
@@ -38632,7 +38636,7 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68" s="15" t="n">
         <v>200</v>
@@ -38752,7 +38756,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D74" s="15" t="n">
         <v>784.29</v>
@@ -38772,7 +38776,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75" s="15" t="n">
         <v>200</v>
@@ -38791,7 +38795,7 @@
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D76" s="15" t="n">
         <v>944.16</v>
@@ -38808,7 +38812,7 @@
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D77" s="15" t="n">
         <v>500</v>
@@ -38893,13 +38897,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D83" s="15" t="n">
         <v>217</v>
@@ -38920,7 +38924,7 @@
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
       <c r="C84" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D84" s="15" t="n">
         <v>210</v>
@@ -38941,7 +38945,7 @@
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
       <c r="C85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D85" s="15" t="n">
         <v>140</v>
@@ -38958,7 +38962,7 @@
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
       <c r="C86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D86" s="15" t="n">
         <v>60</v>
@@ -38978,7 +38982,7 @@
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
       <c r="C87" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D87" s="15" t="n">
         <v>160</v>
@@ -38994,7 +38998,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" s="15" t="n">
         <v>100</v>
@@ -39098,7 +39102,7 @@
       <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.57"/>
@@ -39107,7 +39111,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="24"/>
@@ -39143,7 +39147,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>1147.85</v>
@@ -39183,7 +39187,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>800</v>
@@ -39206,7 +39210,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="31"/>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>500</v>
@@ -39611,7 +39615,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="15" t="n">
         <v>435.697</v>
@@ -39633,7 +39637,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="15" t="n">
         <v>800</v>
@@ -39684,7 +39688,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D36" s="15" t="n">
         <v>800</v>
@@ -39734,7 +39738,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D39" s="15" t="n">
         <v>1779.57</v>
@@ -39867,7 +39871,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="15" t="n">
         <v>2197</v>
@@ -40138,7 +40142,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" s="15" t="n">
         <v>50</v>
@@ -40171,7 +40175,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" s="15" t="n">
         <v>41588.68</v>
@@ -40187,7 +40191,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" s="15" t="n">
         <v>957</v>
@@ -40260,7 +40264,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="5"/>
       <c r="G71" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="39"/>
